--- a/Stocks/CENTURYPLY.xlsx
+++ b/Stocks/CENTURYPLY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>258.3</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>286.66371449856069</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>284.13397060697906</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>38.552482189297393</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>9.75</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>11.149999999999977</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.87443946188340982</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>289.20901769321227</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>0.45136582139923576</v>
       </c>
       <c r="Y67">
         <v>1.2123525978158574</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>260</v>
+      </c>
+      <c r="D83">
+        <v>262.3</v>
+      </c>
+      <c r="E83">
+        <v>256.64999999999998</v>
+      </c>
+      <c r="F83">
+        <v>258</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>258.98333333333335</v>
+      </c>
+      <c r="H83">
+        <v>258.7687682655004</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>263.24976133289755</v>
+      </c>
+      <c r="K83">
+        <v>253.48359331669488</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>50.79704039626457</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.3500000000000227</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>5.6500000000000341</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.23893805309734772</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>259.20924902061125</v>
+      </c>
+      <c r="W83">
+        <v>266.77990071698912</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-7.5706516963778654</v>
+      </c>
+      <c r="Y83">
+        <v>-7.9865893203583882</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>258</v>
+      </c>
+      <c r="D84">
+        <v>258.25</v>
+      </c>
+      <c r="E84">
+        <v>252.4</v>
+      </c>
+      <c r="F84">
+        <v>253.25</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>254.63333333333333</v>
+      </c>
+      <c r="H84">
+        <v>256.70105079941686</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>262.13870325892032</v>
+      </c>
+      <c r="K84">
+        <v>253.2427948018738</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>37.948341378058686</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.8499999999999943</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.14529914529914448</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>258.29244147897873</v>
+      </c>
+      <c r="W84">
+        <v>265.77768584906397</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-7.4852443700852405</v>
+      </c>
+      <c r="Y84">
+        <v>-7.886320330303759</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>255</v>
+      </c>
+      <c r="D85">
+        <v>257.64999999999998</v>
+      </c>
+      <c r="E85">
+        <v>250.35</v>
+      </c>
+      <c r="F85">
+        <v>251.25</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>253.08333333333334</v>
+      </c>
+      <c r="H85">
+        <v>254.89219206637512</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>261.14121364582689</v>
+      </c>
+      <c r="K85">
+        <v>252.59995151256851</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>33.489918705059814</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>7.2999999999999829</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.12328767123287777</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V85">
+        <v>257.20898894375125</v>
+      </c>
+      <c r="W85">
+        <v>264.70156097135555</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.4925720276042966</v>
+      </c>
+      <c r="Y85">
+        <v>-7.8075706697638667</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>251.8</v>
+      </c>
+      <c r="D86">
+        <v>254.7</v>
+      </c>
+      <c r="E86">
+        <v>251.05</v>
+      </c>
+      <c r="F86">
+        <v>252.65</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>252.79999999999998</v>
+      </c>
+      <c r="H86">
+        <v>253.84609603318756</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>259.70983283564311</v>
+      </c>
+      <c r="K86">
+        <v>252.25551784310883</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>39.689850318990224</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.6499999999999773</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.43835616438356284</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>256.50760602932797</v>
+      </c>
+      <c r="W86">
+        <v>263.80885275125513</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.3012467219271571</v>
+      </c>
+      <c r="Y86">
+        <v>-7.706305880196525</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>253</v>
+      </c>
+      <c r="D87">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="E87">
+        <v>249.85</v>
+      </c>
+      <c r="F87">
+        <v>250.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>252.45000000000002</v>
+      </c>
+      <c r="H87">
+        <v>253.1480480165938</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>259.01875887216687</v>
+      </c>
+      <c r="K87">
+        <v>251.72095832241797</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>34.643867013198218</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.7500000000000284</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.15555555555555658</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V87">
+        <v>255.64489740943137</v>
+      </c>
+      <c r="W87">
+        <v>262.85264143634737</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-7.2077440269160036</v>
+      </c>
+      <c r="Y87">
+        <v>-7.6065935095404207</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>251.95</v>
+      </c>
+      <c r="D88">
+        <v>252</v>
+      </c>
+      <c r="E88">
+        <v>247</v>
+      </c>
+      <c r="F88">
+        <v>248.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>249.16666666666666</v>
+      </c>
+      <c r="H88">
+        <v>251.15735734163025</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>257.459034678352</v>
+      </c>
+      <c r="K88">
+        <v>250.67185647299175</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>28.444494018823651</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.3</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>254.54568242336501</v>
+      </c>
+      <c r="W88">
+        <v>261.78948281143278</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-7.2438003880677684</v>
+      </c>
+      <c r="Y88">
+        <v>-7.53403488524589</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>252.9</v>
+      </c>
+      <c r="D89">
+        <v>252.9</v>
+      </c>
+      <c r="E89">
+        <v>240.65</v>
+      </c>
+      <c r="F89">
+        <v>242.45</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>245.33333333333334</v>
+      </c>
+      <c r="H89">
+        <v>248.24534533748181</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>256.44591586094043</v>
+      </c>
+      <c r="K89">
+        <v>248.44477725677137</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>18.188580398889549</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.7999999999999829</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>12.25</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.14693877551020268</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V89">
+        <v>252.68480820438577</v>
+      </c>
+      <c r="W89">
+        <v>260.35692852910444</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-7.6721203247186622</v>
+      </c>
+      <c r="Y89">
+        <v>-7.5616519731404441</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>251.5</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>248.20000000000002</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>246.8</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>245.35000000000002</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>241.85</v>
+      </c>
+      <c r="D90">
+        <v>243</v>
+      </c>
+      <c r="E90">
+        <v>236.65</v>
+      </c>
+      <c r="F90">
+        <v>238.35</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>239.33333333333334</v>
+      </c>
+      <c r="H90">
+        <v>243.78933933540759</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>253.45793455850924</v>
+      </c>
+      <c r="K90">
+        <v>245.82371564415553</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>13.93299644286131</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6.3499999999999943</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.26771653543306934</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>250.47945309601874</v>
+      </c>
+      <c r="W90">
+        <v>258.72678567509672</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-8.2473325790779768</v>
+      </c>
+      <c r="Y90">
+        <v>-7.6987880943279503</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>241.35</v>
+      </c>
+      <c r="D91">
+        <v>253.3</v>
+      </c>
+      <c r="E91">
+        <v>239.1</v>
+      </c>
+      <c r="F91">
+        <v>252.25</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>248.21666666666667</v>
+      </c>
+      <c r="H91">
+        <v>246.00300300103714</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>253.42283798995163</v>
+      </c>
+      <c r="K91">
+        <v>244.32955661212097</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>56.783251140445358</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>13.150000000000006</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>14.200000000000017</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.92605633802816834</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>250.75184492740047</v>
+      </c>
+      <c r="W91">
+        <v>258.24702377323769</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-7.4951788458372164</v>
+      </c>
+      <c r="Y91">
+        <v>-7.6580662446298033</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>253.95</v>
+      </c>
+      <c r="D92">
+        <v>256.95</v>
+      </c>
+      <c r="E92">
+        <v>251</v>
+      </c>
+      <c r="F92">
+        <v>253</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>253.65</v>
+      </c>
+      <c r="H92">
+        <v>249.82650150051859</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>254.20665176996238</v>
+      </c>
+      <c r="K92">
+        <v>245.81187736498296</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.187297472687973</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.9499999999999886</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.33613445378151324</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>251.09771493856962</v>
+      </c>
+      <c r="W92">
+        <v>257.85835534559044</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-6.7606404070208157</v>
+      </c>
+      <c r="Y92">
+        <v>-7.4785810771080055</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>254.2</v>
+      </c>
+      <c r="D93">
+        <v>258.5</v>
+      </c>
+      <c r="E93">
+        <v>250</v>
+      </c>
+      <c r="F93">
+        <v>251.85</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>253.45000000000002</v>
+      </c>
+      <c r="H93">
+        <v>251.63825075025932</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>255.16072915441518</v>
+      </c>
+      <c r="K93">
+        <v>246.74257128387563</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>54.776394395918217</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.21764705882352875</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>251.21345110186661</v>
+      </c>
+      <c r="W93">
+        <v>257.41329198665784</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-6.1998408847912287</v>
+      </c>
+      <c r="Y93">
+        <v>-7.2228330386446498</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>252</v>
+      </c>
+      <c r="D94">
+        <v>254.3</v>
+      </c>
+      <c r="E94">
+        <v>250.6</v>
+      </c>
+      <c r="F94">
+        <v>252.5</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>252.46666666666667</v>
+      </c>
+      <c r="H94">
+        <v>252.05245870846301</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>254.9694560089896</v>
+      </c>
+      <c r="K94">
+        <v>247.59977766523662</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>56.57488311256553</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.51351351351351271</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>251.41138170157944</v>
+      </c>
+      <c r="W94">
+        <v>257.04934443209061</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-5.6379627305111626</v>
+      </c>
+      <c r="Y94">
+        <v>-6.9058589770179521</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>253.2</v>
+      </c>
+      <c r="D95">
+        <v>256</v>
+      </c>
+      <c r="E95">
+        <v>249.25</v>
+      </c>
+      <c r="F95">
+        <v>249.35</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>251.53333333333333</v>
+      </c>
+      <c r="H95">
+        <v>251.79289602089818</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>255.1984657847697</v>
+      </c>
+      <c r="K95">
+        <v>247.96649373962848</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>45.591551129573752</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>1.4814814814813972E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>251.09424605518259</v>
+      </c>
+      <c r="W95">
+        <v>256.4790226223061</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-5.3847765671235095</v>
+      </c>
+      <c r="Y95">
+        <v>-6.601642495039064</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>251.5</v>
+      </c>
+      <c r="D96">
+        <v>254.5</v>
+      </c>
+      <c r="E96">
+        <v>249</v>
+      </c>
+      <c r="F96">
+        <v>251.3</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>251.6</v>
+      </c>
+      <c r="H96">
+        <v>251.6964480104491</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>255.04325116593199</v>
+      </c>
+      <c r="K96">
+        <v>248.19616179748883</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>52.697592921165715</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.41818181818182026</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>251.12590050823144</v>
+      </c>
+      <c r="W96">
+        <v>256.0953913169501</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-4.9694908087186604</v>
+      </c>
+      <c r="Y96">
+        <v>-6.2752121577749831</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>251</v>
+      </c>
+      <c r="D97">
+        <v>252.45</v>
+      </c>
+      <c r="E97">
+        <v>245</v>
+      </c>
+      <c r="F97">
+        <v>246.4</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>247.95000000000002</v>
+      </c>
+      <c r="H97">
+        <v>249.82322400522457</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>254.4669731290582</v>
+      </c>
+      <c r="K97">
+        <v>247.48590362026908</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>37.367946781934613</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000057</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>7.4499999999999886</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.18791946308724938</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>250.39883889158045</v>
+      </c>
+      <c r="W97">
+        <v>255.3772141823612</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-4.9783752907807468</v>
+      </c>
+      <c r="Y97">
+        <v>-6.015844784376136</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>248.1</v>
+      </c>
+      <c r="D98">
+        <v>250.65</v>
+      </c>
+      <c r="E98">
+        <v>243.1</v>
+      </c>
+      <c r="F98">
+        <v>243.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>245.75</v>
+      </c>
+      <c r="H98">
+        <v>247.78661200261229</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>253.61875687815638</v>
+      </c>
+      <c r="K98">
+        <v>246.51125837132039</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>30.750311827592459</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.5500000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>5.2980132450331799E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>249.33747906210652</v>
+      </c>
+      <c r="W98">
+        <v>254.49742053922333</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-5.1599414771168028</v>
+      </c>
+      <c r="Y98">
+        <v>-5.8446641229242697</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>246.65</v>
+      </c>
+      <c r="D99">
+        <v>248.9</v>
+      </c>
+      <c r="E99">
+        <v>244</v>
+      </c>
+      <c r="F99">
+        <v>248.8</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>247.23333333333335</v>
+      </c>
+      <c r="H99">
+        <v>247.50997266797282</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>252.57014423856606</v>
+      </c>
+      <c r="K99">
+        <v>245.95320095547143</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>50.696803913690083</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.97959183673469508</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>249.2547899756286</v>
+      </c>
+      <c r="W99">
+        <v>254.07538938816975</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-4.8205994125411564</v>
+      </c>
+      <c r="Y99">
+        <v>-5.6398511808476472</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>248.5</v>
+      </c>
+      <c r="D100">
+        <v>251</v>
+      </c>
+      <c r="E100">
+        <v>243.1</v>
+      </c>
+      <c r="F100">
+        <v>249</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>247.70000000000002</v>
+      </c>
+      <c r="H100">
+        <v>247.6049863339864</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>252.22122329666249</v>
+      </c>
+      <c r="K100">
+        <v>245.31915629869999</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>51.357690643196605</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>7.9000000000000057</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.74683544303797489</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>249.21559151783958</v>
+      </c>
+      <c r="W100">
+        <v>253.6994346186757</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-4.4838431008361113</v>
+      </c>
+      <c r="Y100">
+        <v>-5.4086495648453399</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>249.05</v>
+      </c>
+      <c r="D101">
+        <v>251.45</v>
+      </c>
+      <c r="E101">
+        <v>244.8</v>
+      </c>
+      <c r="F101">
+        <v>247.4</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>247.88333333333333</v>
+      </c>
+      <c r="H101">
+        <v>247.74415983365986</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>252.04984034184861</v>
+      </c>
+      <c r="K101">
+        <v>245.20378823232221</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>45.287155207457616</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>6.6499999999999773</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.39097744360902303</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>248.93626974586425</v>
+      </c>
+      <c r="W101">
+        <v>253.23280983210714</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-4.2965400862428851</v>
+      </c>
+      <c r="Y101">
+        <v>-5.1862276691248486</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>247.4</v>
+      </c>
+      <c r="D102">
+        <v>249.7</v>
+      </c>
+      <c r="E102">
+        <v>243.8</v>
+      </c>
+      <c r="F102">
+        <v>248.8</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>247.43333333333331</v>
+      </c>
+      <c r="H102">
+        <v>247.58874658349657</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>251.52765359921557</v>
+      </c>
+      <c r="K102">
+        <v>244.89183529180616</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>51.550788081579171</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.84745762711864736</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>248.91530516957744</v>
+      </c>
+      <c r="W102">
+        <v>252.90445354824735</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-3.9891483786699098</v>
+      </c>
+      <c r="Y102">
+        <v>-4.9468118110338608</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>249</v>
+      </c>
+      <c r="D103">
+        <v>249</v>
+      </c>
+      <c r="E103">
+        <v>235.25</v>
+      </c>
+      <c r="F103">
+        <v>242</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>242.08333333333334</v>
+      </c>
+      <c r="H103">
+        <v>244.83603995841497</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>250.9659527993899</v>
+      </c>
+      <c r="K103">
+        <v>242.74920522696036</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>30.412207170235696</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>13.75</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.49090909090909091</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>247.85141206656553</v>
+      </c>
+      <c r="W103">
+        <v>252.09671624837716</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-4.2453041818116333</v>
+      </c>
+      <c r="Y103">
+        <v>-4.8065102851894155</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>242</v>
+      </c>
+      <c r="D104">
+        <v>249</v>
+      </c>
+      <c r="E104">
+        <v>242</v>
+      </c>
+      <c r="F104">
+        <v>245.6</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>245.53333333333333</v>
+      </c>
+      <c r="H104">
+        <v>245.18468664587414</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>250.52907439952548</v>
+      </c>
+      <c r="K104">
+        <v>242.58271517652472</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>45.265030120630868</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.51428571428571346</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>247.5050409794016</v>
+      </c>
+      <c r="W104">
+        <v>251.61547800775662</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-4.1104370283550224</v>
+      </c>
+      <c r="Y104">
+        <v>-4.6672956338225369</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
